--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_22_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_22_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,331 +518,331 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_2</t>
+          <t>model_22_7_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9306587254505246</v>
+        <v>0.9941256478082833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.750810681578122</v>
+        <v>0.7900831459638233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9443863454539696</v>
+        <v>0.9999926307352738</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4703597655863112</v>
+        <v>0.9993177016260159</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5999772626403967</v>
+        <v>0.9999329513390265</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4636854221995529</v>
+        <v>0.03928182015491459</v>
       </c>
       <c r="H2" t="n">
-        <v>1.666330119698405</v>
+        <v>1.403714969518149</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09388979626706165</v>
+        <v>0.0001686736502275978</v>
       </c>
       <c r="J2" t="n">
-        <v>2.51343432307166</v>
+        <v>0.001525860257617911</v>
       </c>
       <c r="K2" t="n">
-        <v>1.303661478215937</v>
+        <v>0.0008472555677572999</v>
       </c>
       <c r="L2" t="n">
-        <v>0.780017243844777</v>
+        <v>0.1021800572366389</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6809445074303433</v>
+        <v>0.1981964181182763</v>
       </c>
       <c r="N2" t="n">
-        <v>1.097893564069848</v>
+        <v>1.008293203094188</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7099337248611071</v>
+        <v>0.2066340499607169</v>
       </c>
       <c r="P2" t="n">
-        <v>83.53709785215716</v>
+        <v>88.47398691722674</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.5110066717534</v>
+        <v>138.447895736823</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_3</t>
+          <t>model_22_7_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9311213544569984</v>
+        <v>0.9938972707443749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7507770902114365</v>
+        <v>0.7899823228688803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9451886461009628</v>
+        <v>0.9999974716441976</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4625070209099522</v>
+        <v>0.9992394068147933</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5944675908329868</v>
+        <v>0.9999304076800135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4605918199030519</v>
+        <v>0.04080897863284929</v>
       </c>
       <c r="H3" t="n">
-        <v>1.666554745322105</v>
+        <v>1.404389174018281</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09253531156530949</v>
+        <v>5.787103844205235e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.550699917181458</v>
+        <v>0.001700955121356991</v>
       </c>
       <c r="K3" t="n">
-        <v>1.321617324776918</v>
+        <v>0.0008793983313851471</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7555926496609265</v>
+        <v>0.09450045715807151</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6786691534931081</v>
+        <v>0.2020123229727565</v>
       </c>
       <c r="N3" t="n">
-        <v>1.097240440766591</v>
+        <v>1.008615617772647</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7075615043961319</v>
+        <v>0.2106124057848643</v>
       </c>
       <c r="P3" t="n">
-        <v>83.55048610281588</v>
+        <v>88.39770631450409</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.5243949224121</v>
+        <v>138.3716151341003</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_1</t>
+          <t>model_22_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9296818422613828</v>
+        <v>0.9952014482806558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7504946538989843</v>
+        <v>0.789888499729745</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9433603981340899</v>
+        <v>0.9999761386341161</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4765068234015666</v>
+        <v>0.9988342847540552</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6041868013527403</v>
+        <v>0.9998752373161409</v>
       </c>
       <c r="G4" t="n">
-        <v>0.470217844583477</v>
+        <v>0.03208793744255375</v>
       </c>
       <c r="H4" t="n">
-        <v>1.668443398243973</v>
+        <v>1.405016569781695</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09562185264117597</v>
+        <v>0.0005461581083815254</v>
       </c>
       <c r="J4" t="n">
-        <v>2.484263151595474</v>
+        <v>0.002606951200982514</v>
       </c>
       <c r="K4" t="n">
-        <v>1.289942724385682</v>
+        <v>0.00157655465468202</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8067474235826423</v>
+        <v>0.0963817907713614</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6857243211258275</v>
+        <v>0.1791310621934503</v>
       </c>
       <c r="N4" t="n">
-        <v>1.099272693278048</v>
+        <v>1.006774425956721</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7149170251211865</v>
+        <v>0.1867570423634435</v>
       </c>
       <c r="P4" t="n">
-        <v>83.50911838509357</v>
+        <v>88.87855020015039</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.4830272046898</v>
+        <v>138.8524590197466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_4</t>
+          <t>model_22_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9311832170541375</v>
+        <v>0.9960207168501336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7504685734921162</v>
+        <v>0.7895259979025655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9457405325381901</v>
+        <v>0.9999453278893718</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4534315913233483</v>
+        <v>0.9976585419377378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5880029368550652</v>
+        <v>0.999743294235795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4601781444311313</v>
+        <v>0.02660948474607063</v>
       </c>
       <c r="H5" t="n">
-        <v>1.668617798044788</v>
+        <v>1.407440621169211</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09160358885122431</v>
+        <v>0.001251379182028729</v>
       </c>
       <c r="J5" t="n">
-        <v>2.593767823917889</v>
+        <v>0.005236327592607954</v>
       </c>
       <c r="K5" t="n">
-        <v>1.342685428096843</v>
+        <v>0.003243843871603347</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7332801122723829</v>
+        <v>0.09194567437164473</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6783643154169677</v>
+        <v>0.1631241390661438</v>
       </c>
       <c r="N5" t="n">
-        <v>1.097153105335335</v>
+        <v>1.005617811505694</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7072436887319884</v>
+        <v>0.1700686713797088</v>
       </c>
       <c r="P5" t="n">
-        <v>83.5522831879328</v>
+        <v>89.25297511469819</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.526192007529</v>
+        <v>139.2268839342944</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_5</t>
+          <t>model_22_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9309380803495664</v>
+        <v>0.9966315792987585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7499477073661619</v>
+        <v>0.7890378435420041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9460337183791848</v>
+        <v>0.9999041876396746</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4435374693754628</v>
+        <v>0.9958957187898726</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5808750346129871</v>
+        <v>0.9995500450618695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4618173747033492</v>
+        <v>0.02252464473935366</v>
       </c>
       <c r="H6" t="n">
-        <v>1.672100832227413</v>
+        <v>1.410704911626029</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09110861762331117</v>
+        <v>0.002193030261950047</v>
       </c>
       <c r="J6" t="n">
-        <v>2.640720876357346</v>
+        <v>0.009178623053213876</v>
       </c>
       <c r="K6" t="n">
-        <v>1.365915036580656</v>
+        <v>0.005685823117655583</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7128950414086306</v>
+        <v>0.08809585577010334</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6795714640148961</v>
+        <v>0.1500821266485575</v>
       </c>
       <c r="N6" t="n">
-        <v>1.097499180682965</v>
+        <v>1.004755417460576</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7085022281448726</v>
+        <v>0.1564714334928183</v>
       </c>
       <c r="P6" t="n">
-        <v>83.54517151779821</v>
+        <v>89.58629049489981</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.5190803373945</v>
+        <v>139.5601993144961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_7_0</t>
+          <t>model_22_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9280518970421503</v>
+        <v>0.9970736550008643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7497379912068109</v>
+        <v>0.7884587405833468</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9421612718344495</v>
+        <v>0.9998558775368123</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4803623842858133</v>
+        <v>0.9936422668474642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6066834159460348</v>
+        <v>0.9993068867412095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4811172957696925</v>
+        <v>0.01956848248379985</v>
       </c>
       <c r="H7" t="n">
-        <v>1.673503205150646</v>
+        <v>1.414577375777095</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09764627856482241</v>
+        <v>0.003298790700116753</v>
       </c>
       <c r="J7" t="n">
-        <v>2.465966393850312</v>
+        <v>0.01421813786444603</v>
       </c>
       <c r="K7" t="n">
-        <v>1.281806336207567</v>
+        <v>0.008758475696162364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8359813486171297</v>
+        <v>0.08477296705546672</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6936261931110247</v>
+        <v>0.1398873921545464</v>
       </c>
       <c r="N7" t="n">
-        <v>1.101573792411082</v>
+        <v>1.004131310587015</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7231552961559234</v>
+        <v>0.1458426880453874</v>
       </c>
       <c r="P7" t="n">
-        <v>83.46328836091179</v>
+        <v>89.86767008712987</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.437197180508</v>
+        <v>139.8415789067261</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9304639983753692</v>
+        <v>0.9973794763979109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7492677439905845</v>
+        <v>0.7878170034459289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9460760791457614</v>
+        <v>0.9998028464319685</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4331664310455958</v>
+        <v>0.9909878537814066</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5733352038194428</v>
+        <v>0.9990239760996745</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4649875630477529</v>
+        <v>0.01752345339357133</v>
       </c>
       <c r="H8" t="n">
-        <v>1.676647750450842</v>
+        <v>1.418868674969936</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09103710202563903</v>
+        <v>0.004512609223657863</v>
       </c>
       <c r="J8" t="n">
-        <v>2.689937159431149</v>
+        <v>0.02015434342968586</v>
       </c>
       <c r="K8" t="n">
-        <v>1.390487107215165</v>
+        <v>0.01233345560982611</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6942713075179314</v>
+        <v>0.08190301415273582</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6818999655724826</v>
+        <v>0.1323761813679913</v>
       </c>
       <c r="N8" t="n">
-        <v>1.098168472881832</v>
+        <v>1.003699562732361</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7109298588344283</v>
+        <v>0.1380117094652988</v>
       </c>
       <c r="P8" t="n">
-        <v>83.53148923977265</v>
+        <v>90.0884302027852</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.5053980593689</v>
+        <v>140.0623390223814</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9298249760288391</v>
+        <v>0.9975759464199887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7484739783235885</v>
+        <v>0.7871357538293724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9458886636420721</v>
+        <v>0.9997469995438691</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4225988114367211</v>
+        <v>0.9880152754123623</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5655926352286036</v>
+        <v>0.9987103564605572</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4692607084214274</v>
+        <v>0.01620965745127576</v>
       </c>
       <c r="H9" t="n">
-        <v>1.681955665120999</v>
+        <v>1.423424194292715</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09135350639795209</v>
+        <v>0.005790877656055671</v>
       </c>
       <c r="J9" t="n">
-        <v>2.740086328833874</v>
+        <v>0.02680207903763376</v>
       </c>
       <c r="K9" t="n">
-        <v>1.415719893933606</v>
+        <v>0.01629648755621014</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6772618417938299</v>
+        <v>0.07942284382121756</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6850260640453233</v>
+        <v>0.1273171530127648</v>
       </c>
       <c r="N9" t="n">
-        <v>1.099070622076933</v>
+        <v>1.003422193289428</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7141890417911738</v>
+        <v>0.1327373077993579</v>
       </c>
       <c r="P9" t="n">
-        <v>83.51319356697033</v>
+        <v>90.24429615079281</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.4871023865666</v>
+        <v>140.2182049703891</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9290740519651886</v>
+        <v>0.9976852783398878</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7476048831788367</v>
+        <v>0.7864335554973338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.945500621622592</v>
+        <v>0.9996897796891508</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4120671619309791</v>
+        <v>0.9848018032252241</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5578242827663855</v>
+        <v>0.9983741801703037</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4742821410927452</v>
+        <v>0.01547855439948317</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68776730835577</v>
+        <v>1.428119797772383</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0920086186442064</v>
+        <v>0.007100571651230022</v>
       </c>
       <c r="J10" t="n">
-        <v>2.790064800306298</v>
+        <v>0.03398853834382046</v>
       </c>
       <c r="K10" t="n">
-        <v>1.441036709475252</v>
+        <v>0.02054455499752525</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6617358385862547</v>
+        <v>0.07728115096568752</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6886814511025726</v>
+        <v>0.1244128385637237</v>
       </c>
       <c r="N10" t="n">
-        <v>1.100130750166793</v>
+        <v>1.003267842343688</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7180000462431446</v>
+        <v>0.1297093506714614</v>
       </c>
       <c r="P10" t="n">
-        <v>83.49190579999178</v>
+        <v>90.33659960045503</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.465814619588</v>
+        <v>140.3105084200513</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9282531838929128</v>
+        <v>0.9977258843525469</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7466922966200176</v>
+        <v>0.7857253274671727</v>
       </c>
       <c r="D11" t="n">
-        <v>0.944945427659997</v>
+        <v>0.9996323067130184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4017492745511133</v>
+        <v>0.9814181233836525</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5501682774896643</v>
+        <v>0.9980227142279871</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4797712896718032</v>
+        <v>0.01520702180585802</v>
       </c>
       <c r="H11" t="n">
-        <v>1.693869778876668</v>
+        <v>1.432855721871161</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09294592529060919</v>
+        <v>0.008416059292646251</v>
       </c>
       <c r="J11" t="n">
-        <v>2.839028852878419</v>
+        <v>0.0415556421090082</v>
       </c>
       <c r="K11" t="n">
-        <v>1.465987389084514</v>
+        <v>0.02498582902419705</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6475664781514685</v>
+        <v>0.07542780785273483</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6926552458992881</v>
+        <v>0.1233167539544324</v>
       </c>
       <c r="N11" t="n">
-        <v>1.101289622739417</v>
+        <v>1.003210516208169</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7221430137112455</v>
+        <v>0.1285666034711447</v>
       </c>
       <c r="P11" t="n">
-        <v>83.46889153696641</v>
+        <v>90.37199599377857</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.4428003565627</v>
+        <v>140.3459048133748</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9273960131073702</v>
+        <v>0.9977130030492207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7457622043860241</v>
+        <v>0.7850227843477081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9442601443302954</v>
+        <v>0.9995754249320576</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3917806816184869</v>
+        <v>0.9779286479720238</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5427328897002338</v>
+        <v>0.9976624187736157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4855031946616357</v>
+        <v>0.0152931591405133</v>
       </c>
       <c r="H12" t="n">
-        <v>1.700089309928063</v>
+        <v>1.437553630945934</v>
       </c>
       <c r="I12" t="n">
-        <v>0.09410285541390556</v>
+        <v>0.009718015184108773</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88633531111479</v>
+        <v>0.04935934215221362</v>
       </c>
       <c r="K12" t="n">
-        <v>1.490219083264348</v>
+        <v>0.02953867654302286</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6346473304382619</v>
+        <v>0.07382569353022152</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6967805929140362</v>
+        <v>0.1236655131413496</v>
       </c>
       <c r="N12" t="n">
-        <v>1.10249974620136</v>
+        <v>1.003228701577571</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7264439852890568</v>
+        <v>0.1289302100586799</v>
       </c>
       <c r="P12" t="n">
-        <v>83.44513882224972</v>
+        <v>90.36069933113718</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.4190476418459</v>
+        <v>140.3346081507334</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9265283877194751</v>
+        <v>0.9976591898931598</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7448351575318899</v>
+        <v>0.7843350663183783</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9434783402994233</v>
+        <v>0.9995197727825984</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3822605534668838</v>
+        <v>0.9743903862232809</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5355990174562153</v>
+        <v>0.9972989213129748</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4913050096255375</v>
+        <v>0.01565300796287992</v>
       </c>
       <c r="H13" t="n">
-        <v>1.706288476510317</v>
+        <v>1.442152404574713</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09542273668728199</v>
+        <v>0.0109918262820951</v>
       </c>
       <c r="J13" t="n">
-        <v>2.931513557217578</v>
+        <v>0.05727214568409165</v>
       </c>
       <c r="K13" t="n">
-        <v>1.513468147796098</v>
+        <v>0.03413198598309337</v>
       </c>
       <c r="L13" t="n">
-        <v>0.623850605725112</v>
+        <v>0.07244673148794066</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7009315299125425</v>
+        <v>0.1251119816919224</v>
       </c>
       <c r="N13" t="n">
-        <v>1.103724629101918</v>
+        <v>1.00330467309201</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7307716362692138</v>
+        <v>0.1304382577700533</v>
       </c>
       <c r="P13" t="n">
-        <v>83.42138028637267</v>
+        <v>90.31418435672695</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.3952891059689</v>
+        <v>140.2880931763232</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.925669798024526</v>
+        <v>0.9975748410382492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7439270217581309</v>
+        <v>0.7836691589794094</v>
       </c>
       <c r="D14" t="n">
-        <v>0.94263126543232</v>
+        <v>0.9994658223579442</v>
       </c>
       <c r="E14" t="n">
-        <v>0.373251904172589</v>
+        <v>0.9708537964723239</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5288206365886203</v>
+        <v>0.9969371121372387</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4970464028691043</v>
+        <v>0.01621704914405795</v>
       </c>
       <c r="H14" t="n">
-        <v>1.712361184611024</v>
+        <v>1.44660533001662</v>
       </c>
       <c r="I14" t="n">
-        <v>0.09685281150154298</v>
+        <v>0.01222668693587462</v>
       </c>
       <c r="J14" t="n">
-        <v>2.974264554724142</v>
+        <v>0.06518121003811163</v>
       </c>
       <c r="K14" t="n">
-        <v>1.535558677149722</v>
+        <v>0.03870396153275133</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6176650110914099</v>
+        <v>0.07124402119539523</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7050151791763808</v>
+        <v>0.1273461783645585</v>
       </c>
       <c r="N14" t="n">
-        <v>1.104936755730081</v>
+        <v>1.003423753828354</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7350291349365331</v>
+        <v>0.1327675688204683</v>
       </c>
       <c r="P14" t="n">
-        <v>83.39814378262005</v>
+        <v>90.24338434769145</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.3720526022163</v>
+        <v>140.2172931672877</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9974684053618498</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7830301086999092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9994139356421261</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9673608359887518</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9965810347422135</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.01692878500223194</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.450878662178193</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01341431176419631</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.07299270393364944</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.04320350784892288</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.07019523352773485</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.130110664444664</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.003574015959741</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1356497447962789</v>
+      </c>
+      <c r="P15" t="n">
+        <v>90.1574797027525</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>140.1313885223487</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9973468187674329</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7824215191242365</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9993643600182834</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9639478309428191</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9962341258360349</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.01774183511895257</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.454948303473014</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01454903846305598</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.08062538921798947</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.04758719721716512</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.06928081261934289</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1331984801675777</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.003745667622448</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1388690152271767</v>
+      </c>
+      <c r="P16" t="n">
+        <v>90.06365972437706</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>140.0375685439733</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9972156350245319</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7818456634064049</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9993172756111216</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9606434091277748</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9958990792898743</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01861906141177714</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.458799053309725</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01562674419351925</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.08801524402965977</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.05182098872874587</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.06847989549644358</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1364516816011336</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.003930868200661</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1422607121808145</v>
+      </c>
+      <c r="P17" t="n">
+        <v>89.96713883186897</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>139.9410476514652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9970793109696421</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7813039646869055</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.999272784715329</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9574698523779936</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.995577961670745</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01953066099453964</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.462421395141311</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01664508755259366</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.09511243831360575</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05587876835867417</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.06777676762888403</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.1397521412878516</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.004123325689917</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1457016792692895</v>
+      </c>
+      <c r="P18" t="n">
+        <v>89.87153937915953</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>139.8454481987558</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9969412672982563</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7807967929933498</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9992309134141699</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9544428036973769</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9952721821453727</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02045375966072957</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.465812854591429</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01760347152557158</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1018819887855744</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.05974272927327383</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.06715840513268556</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1430166412020978</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.00431821087305</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.1491051557033316</v>
+      </c>
+      <c r="P19" t="n">
+        <v>89.77917713380116</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>139.7530859533974</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9968042489296474</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.780324053199419</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9991917069909181</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9515741446123845</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9949828293346159</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02137000212252883</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.468974067770211</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01850085963251471</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1082973241540066</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.06339911519359569</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.06661161960056697</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1461848217925816</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.00451164856991</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1524082123005902</v>
+      </c>
+      <c r="P20" t="n">
+        <v>89.69153422065652</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>139.6654430402527</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9966702888957886</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7798850098870065</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9991551113114036</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9488704207306513</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9947104386572077</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02226579348577143</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.471909952421922</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01933849093978297</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1143438061273096</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.06684116033944171</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0661318125104054</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.1492172693952393</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.00470076861771</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.155569757475725</v>
+      </c>
+      <c r="P21" t="n">
+        <v>89.60940740517485</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>139.5833162247711</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9965408764922258</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7794787058203528</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9991210714496167</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9463348660890867</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9944552437443406</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02313117482428508</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.474626909586493</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.02011762263800912</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1200142022561913</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.07006591244710018</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.06570573293027088</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1520893645995179</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.004883468481564</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.1585641237189064</v>
+      </c>
+      <c r="P22" t="n">
+        <v>89.53314802359689</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>139.5070568431931</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9964170856108822</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7791037952512992</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9990895181688637</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9439673934461668</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9942171734528382</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02395896501783473</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.477133938288059</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02083983947224796</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1253087076435263</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.07307427051218834</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.06532844826677461</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.1547868373532928</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.005058232078755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.1613764334723479</v>
+      </c>
+      <c r="P23" t="n">
+        <v>89.46282540583702</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>139.4367342254332</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9962996097741622</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7787587288226208</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9990603329003354</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9417653892135051</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9939958893378571</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02474452647890785</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.479441399085517</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02150785534064194</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.130233167196471</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.07587051126855648</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.06499537846398362</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.1573039302716491</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.00522408031883</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.1640006842473393</v>
+      </c>
+      <c r="P24" t="n">
+        <v>89.39830193358517</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>139.3722107531814</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9961889040457942</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7784419129455918</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9990334354408691</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9397243805368758</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9937909204165436</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0254848161942573</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.481559948314012</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.02212350599760222</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1347975837975783</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.07846058625705907</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.06469595973274903</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.1596396448074766</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.005380370758879</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.1664358349865526</v>
+      </c>
+      <c r="P25" t="n">
+        <v>89.33934489505404</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>139.3132537146503</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_22_7_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9960851429908277</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7781516127841038</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9990086704441834</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9378383276407742</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9936016009810648</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02617866684659429</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.483501186830592</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.02269034713359184</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1390154645190608</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.08085290764670577</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.06443367414554421</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1617982288116724</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.005526856954126</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1686863143806919</v>
+      </c>
+      <c r="P26" t="n">
+        <v>89.28562088477392</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>139.2595297043702</v>
       </c>
     </row>
   </sheetData>
